--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C394A5F-77C3-4F45-A8DC-2E30761266FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青钢剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操得配剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +388,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>50050</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C394A5F-77C3-4F45-A8DC-2E30761266FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,75 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：普通 剧情 钱
+2：武器
+3：防具
+4:丹药
+5:暗器
+6.秘籍</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+物品堆叠数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>number</t>
   </si>
@@ -64,14 +130,54 @@
   </si>
   <si>
     <t>曹操得配剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,50011,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻常的物品,可以当作暗器使用造成&lt;#x&gt;点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +191,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,77 +509,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>60001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>50050</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>60002</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD476983-0C9E-4C59-A068-5958152DD265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>number</t>
   </si>
@@ -171,12 +172,15 @@
   <si>
     <t>寻常的物品,可以当作暗器使用造成&lt;#x&gt;点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shexiang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,19 +513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -585,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60001</v>
       </c>
@@ -611,7 +615,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60002</v>
       </c>
@@ -623,6 +627,9 @@
       </c>
       <c r="D4" t="s">
         <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
       <c r="G4">
         <v>1</v>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD476983-0C9E-4C59-A068-5958152DD265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB9C7B-DBB9-4B61-A8E3-2FF6B0C23A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{FA742197-AD36-4A10-A35C-9769797429B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.暗器附带伤害
+2.给与目标附带buff
+3.给自己附带buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>number</t>
   </si>
@@ -150,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,22 +190,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,50011,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻常的物品,可以当作暗器使用造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shexiang</t>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50011,5|50004,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河边的尖锐石子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +251,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,8 +279,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -514,18 +564,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,14 +602,17 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
+      <c r="K1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -580,16 +635,19 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60001</v>
       </c>
@@ -608,14 +666,15 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1"/>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60002</v>
       </c>
@@ -626,27 +685,31 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
         <v>20</v>
       </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB9C7B-DBB9-4B61-A8E3-2FF6B0C23A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE80F64-750C-4DFF-95E1-BD5ED9EF57D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>number</t>
   </si>
@@ -215,6 +215,28 @@
   <si>
     <t>河边的尖锐石子。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好东西,能让鬼推磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>招式残页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一张纸,上面记载着几路残招散手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy</t>
   </si>
 </sst>
 </file>
@@ -564,14 +586,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="57.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.88671875" customWidth="1"/>
     <col min="9" max="9" width="32.109375" customWidth="1"/>
@@ -652,26 +675,26 @@
         <v>60001</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>50050</v>
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3">
-        <v>1</v>
+        <v>9999999</v>
       </c>
       <c r="K3">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -704,6 +727,129 @@
       </c>
       <c r="K4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60003</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>50050</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60004</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60018</v>
       </c>
     </row>
   </sheetData>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE80F64-750C-4DFF-95E1-BD5ED9EF57D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{FA742197-AD36-4A10-A35C-9769797429B1}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,11 +79,12 @@
           <t xml:space="preserve">
 1.暗器附带伤害
 2.给与目标附带buff
-3.给自己附带buff</t>
+3.给自己附带buff
+4.学习残章,发现一张对应卡牌</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,22 +585,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60001</v>
       </c>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60002</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>60003</v>
       </c>
@@ -756,7 +756,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>60004</v>
       </c>
@@ -775,6 +775,9 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
@@ -782,72 +785,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60005</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>60007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>60008</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>60009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>60010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>60011</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>60012</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>60013</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>60014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>60015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>60017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>60018</v>
       </c>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -301,9 +301,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -589,7 +592,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,7 +722,7 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J4">
@@ -775,8 +778,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>number</t>
   </si>
@@ -205,11 +205,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8|50011,5|50004,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
+    <t>碎银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好东西,能让鬼推磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>招式残页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一张纸,上面记载着几路残招散手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>毒蒺藜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器,上面涂有剧毒,凡是凹凸不平,能够刺伤双足的东西,都可以拿来代用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰银针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,5|50009,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞蝗石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50030,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,26 +271,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碎银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好东西,能让鬼推磨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>招式残页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一张纸,上面记载着几路残招散手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cy</t>
+    <t>暗器,万载冰晶混合秘银打造,上面涂有剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器,要求稳,准,狠,快,经常被用来练习暗器手法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,7 +632,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,13 +721,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -711,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -719,11 +759,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
       </c>
       <c r="J4">
         <v>20</v>
@@ -767,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -795,15 +835,96 @@
       <c r="A7">
         <v>60005</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60006</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>60007</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>number</t>
   </si>
@@ -197,86 +197,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>r_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好东西,能让鬼推磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>招式残页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一张纸,上面记载着几路残招散手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>毒蒺藜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器,上面涂有剧毒,凡是凹凸不平,能够刺伤双足的东西,都可以拿来代用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰银针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,5|50009,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞蝗石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50030,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河边的尖锐石子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器,万载冰晶混合秘银打造,上面涂有剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器,要求稳,准,狠,快,经常被用来练习暗器手法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>item_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好东西,能让鬼推磨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>招式残页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一张纸,上面记载着几路残招散手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cy</t>
-  </si>
-  <si>
-    <t>毒蒺藜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗器,上面涂有剧毒,凡是凹凸不平,能够刺伤双足的东西,都可以拿来代用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰银针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50011,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50011,5|50009,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞蝗石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50030,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河边的尖锐石子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗器,万载冰晶混合秘银打造,上面涂有剧毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗器,要求稳,准,狠,快,经常被用来练习暗器手法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>武学残本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本书,上面记载着几套完整的武学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武功秘籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本书,上面记载着几套完整的绝学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>mj</t>
   </si>
 </sst>
 </file>
@@ -632,7 +654,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,10 +723,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -721,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -751,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -807,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -839,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -851,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -871,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -883,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -903,10 +925,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -915,10 +937,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -931,10 +953,64 @@
       <c r="A10">
         <v>60008</v>
       </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>60009</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39861F9A-3B5A-4DDC-AEDD-0FCB912815C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,22 +651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -735,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60001</v>
       </c>
@@ -762,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60002</v>
       </c>
@@ -794,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>60003</v>
       </c>
@@ -821,7 +822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60004</v>
       </c>
@@ -853,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60005</v>
       </c>
@@ -885,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60006</v>
       </c>
@@ -917,7 +918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60007</v>
       </c>
@@ -949,7 +950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60008</v>
       </c>
@@ -981,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60009</v>
       </c>
@@ -1013,47 +1014,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60010</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60011</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60012</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>60013</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>60014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>60015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>60017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>60018</v>
       </c>
